--- a/power pcb/bom.xlsx
+++ b/power pcb/bom.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangke/Documents/GitHub/KevinKeWang/tiny_rack/power pcb/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF01CB1-0DEF-D942-B6B7-67BAFC1429FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1 - bom" sheetId="1" r:id="rId4"/>
+    <sheet name="bom" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
-  <si>
-    <t>bom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="180">
   <si>
     <t>Designator</t>
   </si>
   <si>
+    <t>Qty</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
@@ -43,6 +52,9 @@
     <t>LED1, LED2, LED3, LED4</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>LED</t>
   </si>
   <si>
@@ -61,6 +73,9 @@
     <t>R3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>1.2k</t>
   </si>
   <si>
@@ -76,7 +91,10 @@
     <t>UNI-ROYAL 0805W8F1201T5E</t>
   </si>
   <si>
-    <t>R1, R2, R5, R6</t>
+    <t>R1, R2, R4</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2.4k</t>
@@ -91,7 +109,37 @@
     <t>UNI-ROYAL 0805W8F2401T5E</t>
   </si>
   <si>
-    <t>R4</t>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Resistor (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>R7, R8</t>
@@ -109,16 +157,124 @@
     <t>UNI-ROYAL 0805W8F5100T5E</t>
   </si>
   <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>CASE-A-3216</t>
+  </si>
+  <si>
+    <t>tantalum</t>
+  </si>
+  <si>
+    <t>581-TAJA104K035</t>
+  </si>
+  <si>
+    <t>C7173</t>
+  </si>
+  <si>
+    <t>Kyocera AVX TAJA104K035RNJ</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>330nF</t>
+  </si>
+  <si>
+    <t>581-TAJA334K035</t>
+  </si>
+  <si>
+    <t>C8014</t>
+  </si>
+  <si>
+    <t>Kyocera AVX TAJA334K035RNJ</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>581-TAJA105K035R</t>
+  </si>
+  <si>
+    <t>C7176</t>
+  </si>
+  <si>
+    <t>Kyocera AVX TAJA105K035RNJ</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>CASE-B-3528</t>
+  </si>
+  <si>
+    <t>581-TAJB225K035</t>
+  </si>
+  <si>
+    <t>C19276</t>
+  </si>
+  <si>
+    <t>Kyocera AVX TAJB225K035RNJ</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>DIODE</t>
+  </si>
+  <si>
+    <t>SMA(DO-214AC)</t>
+  </si>
+  <si>
+    <t>621-B360A-F</t>
+  </si>
+  <si>
+    <t>C94193</t>
+  </si>
+  <si>
+    <t>DIODES B360A-13-F</t>
+  </si>
+  <si>
     <t>C15</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
     <t>0402</t>
   </si>
   <si>
-    <t>Ceramic</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Ceramic (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional for 3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>187-CL05B104KB54PNC</t>
@@ -148,97 +304,37 @@
     <t>SAMSUNG CL31A226KAHNNNE</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>CASE-A-3216</t>
-  </si>
-  <si>
-    <t>tantalum</t>
-  </si>
-  <si>
-    <t>581-TAJA104K035</t>
-  </si>
-  <si>
-    <t>C7173</t>
-  </si>
-  <si>
-    <t>Kyocera AVX TAJA104K035RNJ</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>330nF</t>
-  </si>
-  <si>
-    <t>581-TAJA334K035</t>
-  </si>
-  <si>
-    <t>C8014</t>
-  </si>
-  <si>
-    <t>Kyocera AVX TAJA334K035RNJ</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>581-TAJA105K035R</t>
-  </si>
-  <si>
-    <t>C7176</t>
-  </si>
-  <si>
-    <t>Kyocera AVX TAJA105K035RNJ</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>CASE-B-3528</t>
-  </si>
-  <si>
-    <t>581-TAJB225K035</t>
-  </si>
-  <si>
-    <t>C19276</t>
-  </si>
-  <si>
-    <t>Kyocera AVX TAJB225K035RNJ</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
-    <t>DIODE</t>
-  </si>
-  <si>
-    <t>SMA(DO-214AC)</t>
-  </si>
-  <si>
-    <t>621-B360A-F</t>
-  </si>
-  <si>
-    <t>C94193</t>
-  </si>
-  <si>
-    <t>DIODES B360A-13-F</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
     <t>33uH</t>
   </si>
   <si>
-    <t>Inductor</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Inductor (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional for 3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>810-MLZ2012M330WT000</t>
@@ -342,7 +438,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="14"/>
+        <color indexed="13"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>or</t>
@@ -363,11 +459,399 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
+      <t>isolated dc-dc regulated converter</t>
+    </r>
+  </si>
+  <si>
+    <t>KK1, KK2, KK3, KK4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Heat sink</t>
+    </r>
+  </si>
+  <si>
+    <t>532-529702B25G</t>
+  </si>
+  <si>
+    <t>C286227</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>DC Power Connector</t>
+  </si>
+  <si>
+    <t>2.1 mm, 5.5 mm</t>
+  </si>
+  <si>
+    <t>710-694106301002</t>
+  </si>
+  <si>
+    <t>C136744</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik 694106301002</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Converter (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional for 5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>709-NID65-5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>MEANWELL NID65-5 (support +5V 6500mA)</t>
+    </r>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>USB Connector</t>
+  </si>
+  <si>
+    <t>USB2.0 TYPE-A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Connector (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional for 5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>710-614004190021</t>
+  </si>
+  <si>
+    <t>C2880666</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik 614004190021</t>
+  </si>
+  <si>
+    <t>IC5</t>
+  </si>
+  <si>
+    <t>3.3V converter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Converter (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional for 3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>919-ROF78E3.3-.5SMDR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RECOM Power ROF-78E3.3-0.5SMD-R</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>2x3 header</t>
+  </si>
+  <si>
+    <t>2.54mm pitch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2x3 header (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional for 3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>710-61300621121</t>
+  </si>
+  <si>
+    <t>C358692</t>
+  </si>
+  <si>
+    <t>2x3 male header, 2.54mm pitch</t>
+  </si>
+  <si>
+    <t>J2, J6, J8, J9, J10, J11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>M3 screw terminal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>terminal (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>534-7770</t>
+  </si>
+  <si>
+    <t>C481448</t>
+  </si>
+  <si>
+    <t>Keystone 7770</t>
+  </si>
+  <si>
+    <t>X1, X7</t>
+  </si>
+  <si>
+    <t>2x8 header</t>
+  </si>
+  <si>
+    <t>710-61201621621</t>
+  </si>
+  <si>
+    <t>C429960</t>
+  </si>
+  <si>
+    <t>2x8 male header, 2.54mm pitch</t>
+  </si>
+  <si>
+    <t>Hardware Mount</t>
+  </si>
+  <si>
+    <t>flathead screw</t>
+  </si>
+  <si>
+    <t>M2.5 x 20mm</t>
+  </si>
+  <si>
+    <t>for pcb mount</t>
+  </si>
+  <si>
+    <t>hex nylon nuts</t>
+  </si>
+  <si>
+    <t>M2.5 x 8mm</t>
+  </si>
+  <si>
+    <t>mounting screws</t>
+  </si>
+  <si>
+    <t>M3 x 10mm + 6mm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Optional for heat sink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>for heat sink mount</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>7mm x 5mm</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>15V Adapter</t>
+  </si>
+  <si>
+    <t>GST60A15-P1J</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">709-GSM36B15-P1J </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 709-GST60A15-P1J</t>
+    </r>
+  </si>
+  <si>
+    <t>MEANWELL 15V DC Adapter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">IC1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
       <t>isolated dc-dc regulated converter (</t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -380,25 +864,12 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>) :  MEANWELL SKMW06F-15 (support -12V 400mA) / MEANWELL SKMW30F-15 (support -12V 1500mA)</t>
-    </r>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">709-NID35-5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="15"/>
+      <t xml:space="preserve">) :  MEANWELL SKMW06F-15 (support -12V 400mA) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>or</t>
@@ -409,21 +880,21 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> 709-NID65-5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>dc-dc regulated converter (</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
+      <t xml:space="preserve"> MEANWELL SKMW30F-15 (support -12V 1500mA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Heat sink (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -436,40 +907,53 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>): MEANWELL NID35-5 (support +5V 3500mA) / MEANWELL NID65-5 (support +5V 6500mA)</t>
-    </r>
-  </si>
-  <si>
-    <t>KK1, KK2, KK3, KK4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Heat sink</t>
-    </r>
-  </si>
-  <si>
-    <t>532-529702B25G</t>
-  </si>
-  <si>
-    <t>C286227</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Heat sink (</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
+      <t>): 40x40x6mm Customized heat sink with 32x32mm hole spacing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>42x25x25mm Standard heat sinks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>15V DC Adapter (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -482,130 +966,12 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>): 40x40x6mm Customized heat sink with 32x32mm hole spacing / 42x25x25mm Standard heat sinks</t>
-    </r>
-  </si>
-  <si>
-    <t>IC5</t>
-  </si>
-  <si>
-    <t>3.3V converter</t>
-  </si>
-  <si>
-    <t>DC/DC converter</t>
-  </si>
-  <si>
-    <t>919-ROF78E3.3-.5SMDR</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>RECOM Power ROF-78E3.3-0.5SMD-R</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>DC Power Connector</t>
-  </si>
-  <si>
-    <t>2.1 mm, 5.5 mm</t>
-  </si>
-  <si>
-    <t>710-694106301002</t>
-  </si>
-  <si>
-    <t>C136744</t>
-  </si>
-  <si>
-    <t>Wurth Elektronik 694106301002</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>USB Connector</t>
-  </si>
-  <si>
-    <t>USB2.0 TYPE-A</t>
-  </si>
-  <si>
-    <t>710-614004190021</t>
-  </si>
-  <si>
-    <t>C2880666</t>
-  </si>
-  <si>
-    <t>Wurth Elektronik 614004190021</t>
-  </si>
-  <si>
-    <t>J2, J6, J8, J9, J10, J11</t>
-  </si>
-  <si>
-    <t>M3 screw terminal</t>
-  </si>
-  <si>
-    <t>534-7770</t>
-  </si>
-  <si>
-    <t>C481448</t>
-  </si>
-  <si>
-    <t>Keystone 7770</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>2x3 header</t>
-  </si>
-  <si>
-    <t>710-61300621121</t>
-  </si>
-  <si>
-    <t>C358692</t>
-  </si>
-  <si>
-    <t>2x3 male header, 2.54mm pitch</t>
-  </si>
-  <si>
-    <t>X1, X7</t>
-  </si>
-  <si>
-    <t>2x8 header</t>
-  </si>
-  <si>
-    <t>710-61201621621</t>
-  </si>
-  <si>
-    <t>C429960</t>
-  </si>
-  <si>
-    <t>2x8 male header, 2.54mm pitch</t>
-  </si>
-  <si>
-    <t>Adapter</t>
-  </si>
-  <si>
-    <t>15V Adapter</t>
-  </si>
-  <si>
-    <t>GST60A15-P1J</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">709-GSM36B15-P1J </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="15"/>
+      <t xml:space="preserve">): MEANWELL GSM36B15-P1J (15V 36W) for 12V 400mA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>or</t>
@@ -616,79 +982,25 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> 709-GST60A15-P1J</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>15V DC Adapter (</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>choose one</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">): MEANWELL GSM36B15-P1J (15V 36W) for +12V 1500mA,-12V 400mA </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> MEANWELL GST60A15-P1J (15V 60W) for +12V 1500mA,-12V 1500mA, +5V 3500mA/6500mA</t>
-    </r>
+      <t xml:space="preserve"> MEANWELL GST60A15-P1J (15V 60W) for -12V 1500mA</t>
+    </r>
+  </si>
+  <si>
+    <t>**In the current scheme, the use of +5V is not recommended and will increase the output ripple on all channels.Possibly improved later.**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -700,13 +1012,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="15"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -729,7 +1042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -741,28 +1054,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -776,129 +1067,196 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffff644e"/>
-      <rgbColor rgb="ffcc503e"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF2600"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1100,7 +1458,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1118,7 +1476,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1505,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1530,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1555,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1580,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1605,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,7 +1630,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1655,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1680,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,7 +1705,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,9 +1718,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1379,7 +1743,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1397,7 +1761,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,7 +1786,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1811,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1472,7 +1836,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1497,7 +1861,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1522,7 +1886,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,7 +1911,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1572,7 +1936,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1597,7 +1961,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1622,7 +1986,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1635,9 +1999,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1651,7 +2021,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1669,7 +2039,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1698,7 +2068,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1723,7 +2093,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1748,7 +2118,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1773,7 +2143,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1798,7 +2168,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1823,7 +2193,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1848,7 +2218,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1873,7 +2243,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1898,7 +2268,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1911,704 +2281,953 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.17188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="151" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" ht="14.7" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="2" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="9">
+      <c r="C31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" ht="14.7" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s" s="9">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="G11" t="s" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="14.7" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s" s="9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" ht="14.7" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s" s="9">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" ht="14.7" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s" s="9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s" s="9">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s" s="9">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s" s="9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" ht="14.7" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s" s="9">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s" s="9">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s" s="9">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" ht="14.7" customHeight="1">
-      <c r="A17" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="14.7" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="F18" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" ht="14.7" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="E19" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s" s="9">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s" s="9">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" ht="14.7" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s" s="9">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="G20" t="s" s="9">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" ht="14.7" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>100</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>94</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s" s="9">
-        <v>101</v>
-      </c>
-      <c r="F21" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="G21" t="s" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" ht="14.75" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>105</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" t="s" s="13">
-        <v>106</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" t="s" s="9">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" ht="14.75" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>105</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" t="s" s="13">
-        <v>109</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" t="s" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" ht="14.75" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" t="s" s="9">
-        <v>113</v>
-      </c>
-      <c r="F24" t="s" s="9">
-        <v>114</v>
-      </c>
-      <c r="G24" t="s" s="9">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" ht="14.7" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>117</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s" s="9">
-        <v>118</v>
-      </c>
-      <c r="E25" t="s" s="9">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s" s="9">
-        <v>120</v>
-      </c>
-      <c r="G25" t="s" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" ht="14.7" customHeight="1">
-      <c r="A26" t="s" s="9">
-        <v>122</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>123</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s" s="9">
-        <v>124</v>
-      </c>
-      <c r="E26" t="s" s="9">
-        <v>125</v>
-      </c>
-      <c r="F26" t="s" s="9">
-        <v>126</v>
-      </c>
-      <c r="G26" t="s" s="9">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" ht="14.7" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>128</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>129</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" t="s" s="9">
-        <v>130</v>
-      </c>
-      <c r="E27" t="s" s="9">
-        <v>131</v>
-      </c>
-      <c r="F27" t="s" s="9">
-        <v>132</v>
-      </c>
-      <c r="G27" t="s" s="9">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" ht="14.7" customHeight="1">
-      <c r="A28" t="s" s="9">
-        <v>134</v>
-      </c>
-      <c r="B28" t="s" s="9">
-        <v>135</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" t="s" s="9">
-        <v>135</v>
-      </c>
-      <c r="E28" t="s" s="9">
-        <v>136</v>
-      </c>
-      <c r="F28" t="s" s="9">
-        <v>137</v>
-      </c>
-      <c r="G28" t="s" s="9">
+      <c r="C36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>139</v>
-      </c>
-      <c r="B29" t="s" s="9">
-        <v>140</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" t="s" s="9">
-        <v>140</v>
-      </c>
-      <c r="E29" t="s" s="9">
-        <v>141</v>
-      </c>
-      <c r="F29" t="s" s="9">
-        <v>142</v>
-      </c>
-      <c r="G29" t="s" s="9">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" ht="14.7" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>144</v>
-      </c>
-      <c r="B30" t="s" s="9">
-        <v>145</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" t="s" s="9">
-        <v>145</v>
-      </c>
-      <c r="E30" t="s" s="9">
-        <v>146</v>
-      </c>
-      <c r="F30" t="s" s="9">
-        <v>147</v>
-      </c>
-      <c r="G30" t="s" s="9">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" ht="14.7" customHeight="1">
-      <c r="A31" t="s" s="10">
-        <v>149</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="14.75" customHeight="1">
-      <c r="A32" t="s" s="9">
-        <v>150</v>
-      </c>
-      <c r="B32" t="s" s="9">
-        <v>150</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" t="s" s="9">
-        <v>151</v>
-      </c>
-      <c r="E32" t="s" s="9">
-        <v>152</v>
-      </c>
-      <c r="F32" t="s" s="9">
-        <v>120</v>
-      </c>
-      <c r="G32" t="s" s="9">
-        <v>153</v>
-      </c>
+      <c r="H36" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.75" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A31:G31"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
